--- a/Documentation/Gantt Chart.xlsx
+++ b/Documentation/Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web Dev Projects\DevSol\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE5A689-5478-443A-9464-9B1699BF958E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F5A728-0D03-416F-9F79-D09576084EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="39">
   <si>
     <t>Number</t>
   </si>
@@ -142,6 +142,15 @@
   </si>
   <si>
     <t>Ahmad</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -1729,10 +1738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1745,7 +1754,7 @@
     <col min="6" max="6" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1764,8 +1773,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1785,8 +1797,11 @@
       <c r="F2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1806,8 +1821,11 @@
       <c r="F3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1827,8 +1845,11 @@
       <c r="F4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1848,8 +1869,11 @@
       <c r="F5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1869,8 +1893,11 @@
       <c r="F6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1890,8 +1917,11 @@
       <c r="F7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1911,8 +1941,11 @@
       <c r="F8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1932,8 +1965,11 @@
       <c r="F9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1953,8 +1989,11 @@
       <c r="F10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1974,8 +2013,11 @@
       <c r="F11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1995,8 +2037,11 @@
       <c r="F12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2016,8 +2061,11 @@
       <c r="F13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2037,8 +2085,11 @@
       <c r="F14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2058,8 +2109,11 @@
       <c r="F15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2079,8 +2133,11 @@
       <c r="F16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2100,8 +2157,11 @@
       <c r="F17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2121,8 +2181,11 @@
       <c r="F18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2142,8 +2205,11 @@
       <c r="F19" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2163,8 +2229,11 @@
       <c r="F20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2184,8 +2253,11 @@
       <c r="F21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2205,8 +2277,11 @@
       <c r="F22" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2226,8 +2301,11 @@
       <c r="F23" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2247,8 +2325,11 @@
       <c r="F24" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2268,8 +2349,11 @@
       <c r="F25" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2289,8 +2373,11 @@
       <c r="F26" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2310,8 +2397,11 @@
       <c r="F27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2331,8 +2421,11 @@
       <c r="F28" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2351,6 +2444,9 @@
       </c>
       <c r="F29" t="s">
         <v>34</v>
+      </c>
+      <c r="G29" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.3">
